--- a/Stock.xlsx
+++ b/Stock.xlsx
@@ -15,12 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
     <t>名稱</t>
   </si>
   <si>
+    <t>資本額</t>
+  </si>
+  <si>
     <t>群創光電股份有限公司</t>
+  </si>
+  <si>
+    <t>995.5億</t>
   </si>
 </sst>
 </file>
@@ -373,7 +379,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -381,14 +387,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row spans="1:1" r="1">
-      <c s="1" r="A1" t="s">
+    <row spans="1:2" r="1">
+      <c t="s" r="A1" s="1">
         <v>0</v>
       </c>
+      <c t="s" r="B1" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row spans="1:1" r="2">
+    <row spans="1:2" r="2">
       <c t="s" r="A2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c t="s" r="B2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
